--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value114.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value114.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.054488415773354</v>
+        <v>0.7215909361839294</v>
       </c>
       <c r="B1">
-        <v>1.863500733295969</v>
+        <v>1.646070957183838</v>
       </c>
       <c r="C1">
-        <v>4.527206723527637</v>
+        <v>3.958370447158813</v>
       </c>
       <c r="D1">
-        <v>2.366003606397981</v>
+        <v>1.665257811546326</v>
       </c>
       <c r="E1">
-        <v>0.9587948955992244</v>
+        <v>0.9116083383560181</v>
       </c>
     </row>
   </sheetData>
